--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Has2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Has2-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.209624</v>
+        <v>1.459709</v>
       </c>
       <c r="H2">
-        <v>153.628872</v>
+        <v>2.919418</v>
       </c>
       <c r="I2">
-        <v>0.9420574924009609</v>
+        <v>0.02561255265273268</v>
       </c>
       <c r="J2">
-        <v>0.9606108937376658</v>
+        <v>0.01767271725384302</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N2">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O2">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P2">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q2">
-        <v>1002.27437685582</v>
+        <v>50.227021881952</v>
       </c>
       <c r="R2">
-        <v>6013.64626113492</v>
+        <v>200.908087527808</v>
       </c>
       <c r="S2">
-        <v>0.02914924592861858</v>
+        <v>0.0005880939482941043</v>
       </c>
       <c r="T2">
-        <v>0.02101039287718487</v>
+        <v>0.0002802206046169938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.209624</v>
+        <v>1.459709</v>
       </c>
       <c r="H3">
-        <v>153.628872</v>
+        <v>2.919418</v>
       </c>
       <c r="I3">
-        <v>0.9420574924009609</v>
+        <v>0.02561255265273268</v>
       </c>
       <c r="J3">
-        <v>0.9606108937376658</v>
+        <v>0.01767271725384302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P3">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q3">
-        <v>5914.493572630631</v>
+        <v>168.590175518787</v>
       </c>
       <c r="R3">
-        <v>53230.44215367568</v>
+        <v>1011.541053112722</v>
       </c>
       <c r="S3">
-        <v>0.1720118080167631</v>
+        <v>0.001973974531029597</v>
       </c>
       <c r="T3">
-        <v>0.1859757714554899</v>
+        <v>0.001410867272622484</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.209624</v>
+        <v>1.459709</v>
       </c>
       <c r="H4">
-        <v>153.628872</v>
+        <v>2.919418</v>
       </c>
       <c r="I4">
-        <v>0.9420574924009609</v>
+        <v>0.02561255265273268</v>
       </c>
       <c r="J4">
-        <v>0.9606108937376658</v>
+        <v>0.01767271725384302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N4">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O4">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P4">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q4">
-        <v>12285.10044392873</v>
+        <v>534.6591816775465</v>
       </c>
       <c r="R4">
-        <v>110565.9039953585</v>
+        <v>3207.955090065278</v>
       </c>
       <c r="S4">
-        <v>0.3572888047095846</v>
+        <v>0.006260172659319599</v>
       </c>
       <c r="T4">
-        <v>0.3862936030635721</v>
+        <v>0.004474360021956967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.209624</v>
+        <v>1.459709</v>
       </c>
       <c r="H5">
-        <v>153.628872</v>
+        <v>2.919418</v>
       </c>
       <c r="I5">
-        <v>0.9420574924009609</v>
+        <v>0.02561255265273268</v>
       </c>
       <c r="J5">
-        <v>0.9606108937376658</v>
+        <v>0.01767271725384302</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N5">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O5">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P5">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q5">
-        <v>4524.020237015148</v>
+        <v>176.854199785858</v>
       </c>
       <c r="R5">
-        <v>27144.12142209089</v>
+        <v>707.4167991434321</v>
       </c>
       <c r="S5">
-        <v>0.1315725329509965</v>
+        <v>0.002070735646419686</v>
       </c>
       <c r="T5">
-        <v>0.0948357503283721</v>
+        <v>0.0009866838394186263</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.209624</v>
+        <v>1.459709</v>
       </c>
       <c r="H6">
-        <v>153.628872</v>
+        <v>2.919418</v>
       </c>
       <c r="I6">
-        <v>0.9420574924009609</v>
+        <v>0.02561255265273268</v>
       </c>
       <c r="J6">
-        <v>0.9606108937376658</v>
+        <v>0.01767271725384302</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N6">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O6">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P6">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q6">
-        <v>928.1469012921626</v>
+        <v>981.3500183738354</v>
       </c>
       <c r="R6">
-        <v>8353.322111629464</v>
+        <v>5888.100110243012</v>
       </c>
       <c r="S6">
-        <v>0.02699338914412099</v>
+        <v>0.0114903489265275</v>
       </c>
       <c r="T6">
-        <v>0.02918471951522607</v>
+        <v>0.008212546310308738</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.209624</v>
+        <v>1.459709</v>
       </c>
       <c r="H7">
-        <v>153.628872</v>
+        <v>2.919418</v>
       </c>
       <c r="I7">
-        <v>0.9420574924009609</v>
+        <v>0.02561255265273268</v>
       </c>
       <c r="J7">
-        <v>0.9606108937376658</v>
+        <v>0.01767271725384302</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N7">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O7">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P7">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q7">
-        <v>7737.885977009191</v>
+        <v>275.7968394420967</v>
       </c>
       <c r="R7">
-        <v>69640.97379308273</v>
+        <v>1654.78103665258</v>
       </c>
       <c r="S7">
-        <v>0.2250417116508771</v>
+        <v>0.003229226941142192</v>
       </c>
       <c r="T7">
-        <v>0.2433106564978209</v>
+        <v>0.002308039204919214</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.1497165</v>
+        <v>51.209624</v>
       </c>
       <c r="H8">
-        <v>6.299433000000001</v>
+        <v>153.628872</v>
       </c>
       <c r="I8">
-        <v>0.05794250759903903</v>
+        <v>0.898541552478366</v>
       </c>
       <c r="J8">
-        <v>0.03938910626233424</v>
+        <v>0.9299934496816972</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N8">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O8">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P8">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q8">
-        <v>61.64622771512626</v>
+        <v>1762.068265123072</v>
       </c>
       <c r="R8">
-        <v>246.584910860505</v>
+        <v>10572.40959073843</v>
       </c>
       <c r="S8">
-        <v>0.001792863405205392</v>
+        <v>0.02063155736439011</v>
       </c>
       <c r="T8">
-        <v>0.0008615148995789239</v>
+        <v>0.01474608137596834</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.1497165</v>
+        <v>51.209624</v>
       </c>
       <c r="H9">
-        <v>6.299433000000001</v>
+        <v>153.628872</v>
       </c>
       <c r="I9">
-        <v>0.05794250759903903</v>
+        <v>0.898541552478366</v>
       </c>
       <c r="J9">
-        <v>0.03938910626233424</v>
+        <v>0.9299934496816972</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P9">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q9">
-        <v>363.7788474068595</v>
+        <v>5914.493572630632</v>
       </c>
       <c r="R9">
-        <v>2182.673084441157</v>
+        <v>53230.44215367569</v>
       </c>
       <c r="S9">
-        <v>0.01057981659668564</v>
+        <v>0.06925112712164</v>
       </c>
       <c r="T9">
-        <v>0.007625792578280278</v>
+        <v>0.0742442321156849</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.1497165</v>
+        <v>51.209624</v>
       </c>
       <c r="H10">
-        <v>6.299433000000001</v>
+        <v>153.628872</v>
       </c>
       <c r="I10">
-        <v>0.05794250759903903</v>
+        <v>0.898541552478366</v>
       </c>
       <c r="J10">
-        <v>0.03938910626233424</v>
+        <v>0.9299934496816972</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N10">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O10">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P10">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q10">
-        <v>755.6115540391321</v>
+        <v>18756.9547504707</v>
       </c>
       <c r="R10">
-        <v>4533.669324234793</v>
+        <v>168812.5927542363</v>
       </c>
       <c r="S10">
-        <v>0.02197552638658422</v>
+        <v>0.2196198612592214</v>
       </c>
       <c r="T10">
-        <v>0.01583967023351944</v>
+        <v>0.2354547663593031</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.1497165</v>
+        <v>51.209624</v>
       </c>
       <c r="H11">
-        <v>6.299433000000001</v>
+        <v>153.628872</v>
       </c>
       <c r="I11">
-        <v>0.05794250759903903</v>
+        <v>0.898541552478366</v>
       </c>
       <c r="J11">
-        <v>0.03938910626233424</v>
+        <v>0.9299934496816972</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N11">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O11">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P11">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q11">
-        <v>278.2559228878643</v>
+        <v>6204.412710927088</v>
       </c>
       <c r="R11">
-        <v>1113.023691551457</v>
+        <v>37226.47626556253</v>
       </c>
       <c r="S11">
-        <v>0.008092544830685484</v>
+        <v>0.07264570805314556</v>
       </c>
       <c r="T11">
-        <v>0.003888666546990647</v>
+        <v>0.0519223781145806</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.1497165</v>
+        <v>51.209624</v>
       </c>
       <c r="H12">
-        <v>6.299433000000001</v>
+        <v>153.628872</v>
       </c>
       <c r="I12">
-        <v>0.05794250759903903</v>
+        <v>0.898541552478366</v>
       </c>
       <c r="J12">
-        <v>0.03938910626233424</v>
+        <v>0.9299934496816972</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N12">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O12">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P12">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q12">
-        <v>57.0869180649285</v>
+        <v>34427.7972207592</v>
       </c>
       <c r="R12">
-        <v>342.521508389571</v>
+        <v>309850.1749868328</v>
       </c>
       <c r="S12">
-        <v>0.001660264546721897</v>
+        <v>0.4031053094529643</v>
       </c>
       <c r="T12">
-        <v>0.001196696837102072</v>
+        <v>0.4321697769557128</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.1497165</v>
+        <v>51.209624</v>
       </c>
       <c r="H13">
-        <v>6.299433000000001</v>
+        <v>153.628872</v>
       </c>
       <c r="I13">
-        <v>0.05794250759903903</v>
+        <v>0.898541552478366</v>
       </c>
       <c r="J13">
-        <v>0.03938910626233424</v>
+        <v>0.9299934496816972</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N13">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O13">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P13">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q13">
-        <v>475.9290389811195</v>
+        <v>9675.526045409146</v>
       </c>
       <c r="R13">
-        <v>2855.574233886717</v>
+        <v>87079.73440868231</v>
       </c>
       <c r="S13">
-        <v>0.0138414918331564</v>
+        <v>0.1132879892270047</v>
       </c>
       <c r="T13">
-        <v>0.00997676516686289</v>
+        <v>0.1214562147604473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.322604500000001</v>
+      </c>
+      <c r="H14">
+        <v>8.645209000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.07584589486890143</v>
+      </c>
+      <c r="J14">
+        <v>0.05233383306445977</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>34.408928</v>
+      </c>
+      <c r="N14">
+        <v>68.81785599999999</v>
+      </c>
+      <c r="O14">
+        <v>0.02296116112547488</v>
+      </c>
+      <c r="P14">
+        <v>0.01585611315973826</v>
+      </c>
+      <c r="Q14">
+        <v>148.736187012976</v>
+      </c>
+      <c r="R14">
+        <v>594.9447480519041</v>
+      </c>
+      <c r="S14">
+        <v>0.001741509812790675</v>
+      </c>
+      <c r="T14">
+        <v>0.000829811179152926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.322604500000001</v>
+      </c>
+      <c r="H15">
+        <v>8.645209000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.07584589486890143</v>
+      </c>
+      <c r="J15">
+        <v>0.05233383306445977</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>115.495743</v>
+      </c>
+      <c r="N15">
+        <v>346.487229</v>
+      </c>
+      <c r="O15">
+        <v>0.07707058947984194</v>
+      </c>
+      <c r="P15">
+        <v>0.07983306994376788</v>
+      </c>
+      <c r="Q15">
+        <v>499.2424184226436</v>
+      </c>
+      <c r="R15">
+        <v>2995.454510535862</v>
+      </c>
+      <c r="S15">
+        <v>0.005845487827172352</v>
+      </c>
+      <c r="T15">
+        <v>0.004177970555460489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.322604500000001</v>
+      </c>
+      <c r="H16">
+        <v>8.645209000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.07584589486890143</v>
+      </c>
+      <c r="J16">
+        <v>0.05233383306445977</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>366.2779236666667</v>
+      </c>
+      <c r="N16">
+        <v>1098.833771</v>
+      </c>
+      <c r="O16">
+        <v>0.2444181469999509</v>
+      </c>
+      <c r="P16">
+        <v>0.253178951357013</v>
+      </c>
+      <c r="Q16">
+        <v>1583.27460109219</v>
+      </c>
+      <c r="R16">
+        <v>9499.647606553141</v>
+      </c>
+      <c r="S16">
+        <v>0.01853811308140997</v>
+      </c>
+      <c r="T16">
+        <v>0.0132498249757529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.322604500000001</v>
+      </c>
+      <c r="H17">
+        <v>8.645209000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.07584589486890143</v>
+      </c>
+      <c r="J17">
+        <v>0.05233383306445977</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>121.157162</v>
+      </c>
+      <c r="N17">
+        <v>242.314324</v>
+      </c>
+      <c r="O17">
+        <v>0.08084846811232432</v>
+      </c>
+      <c r="P17">
+        <v>0.05583090733848903</v>
+      </c>
+      <c r="Q17">
+        <v>523.7144936684291</v>
+      </c>
+      <c r="R17">
+        <v>2094.857974673716</v>
+      </c>
+      <c r="S17">
+        <v>0.00613202441275908</v>
+      </c>
+      <c r="T17">
+        <v>0.002921845384489807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.322604500000001</v>
+      </c>
+      <c r="H18">
+        <v>8.645209000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.07584589486890143</v>
+      </c>
+      <c r="J18">
+        <v>0.05233383306445977</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>672.2915446666666</v>
+      </c>
+      <c r="N18">
+        <v>2016.874634</v>
+      </c>
+      <c r="O18">
+        <v>0.4486217786379665</v>
+      </c>
+      <c r="P18">
+        <v>0.4647019579585521</v>
+      </c>
+      <c r="Q18">
+        <v>2906.050456288085</v>
+      </c>
+      <c r="R18">
+        <v>17436.30273772851</v>
+      </c>
+      <c r="S18">
+        <v>0.03402612025847478</v>
+      </c>
+      <c r="T18">
+        <v>0.02431963469253046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.322604500000001</v>
+      </c>
+      <c r="H19">
+        <v>8.645209000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.07584589486890143</v>
+      </c>
+      <c r="J19">
+        <v>0.05233383306445977</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>188.9396033333333</v>
+      </c>
+      <c r="N19">
+        <v>566.81881</v>
+      </c>
+      <c r="O19">
+        <v>0.1260798556444414</v>
+      </c>
+      <c r="P19">
+        <v>0.1305990002424397</v>
+      </c>
+      <c r="Q19">
+        <v>816.7111795968818</v>
+      </c>
+      <c r="R19">
+        <v>4900.26707758129</v>
+      </c>
+      <c r="S19">
+        <v>0.009562639476294574</v>
+      </c>
+      <c r="T19">
+        <v>0.006834746277073181</v>
       </c>
     </row>
   </sheetData>
